--- a/device_records.xlsx
+++ b/device_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,57 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>qq1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>weed</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-04-25 16:03:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>/Users/lhy/Library/Containers/com.wegenerlabs.FinalShot/Data/tmp/TemporaryItems/NSIRD_FinalShot_9M4Yv0/2025-04-25 16.05.11.jpeg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-04-25 16:05:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>呼吸机1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>是我的钱我打钱</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-04-25 16:06:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
